--- a/inventory_management/utils/inventario.xlsx
+++ b/inventory_management/utils/inventario.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>feel</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ahead</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D23" t="n">
         <v>996.1</v>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>wrong</t>
+          <t>seek</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>strategy</t>
+          <t>region</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>shoulder</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>option</t>
+          <t>win</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>public</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>practice</t>
+          <t>wife</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>simply</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tend</t>
+          <t>rise</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>threat</t>
+          <t>item</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>majority</t>
+          <t>fill</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>technology</t>
+          <t>include</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>third</t>
+          <t>hair</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>we</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>until</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>cup</t>
+          <t>moment</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>suffer</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>door</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D229" t="n">
         <v>496.65</v>
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D245" t="n">
         <v>895.87</v>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>anything</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>everyone</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>especially</t>
+          <t>avoid</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>produce</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>indicate</t>
+          <t>fine</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D313" t="n">
         <v>543.54</v>
@@ -9359,7 +9359,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D322" t="n">
         <v>537.61</v>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>table</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -9719,7 +9719,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D335" t="n">
         <v>135.59</v>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>term</t>
+          <t>move</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>eat</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>run</t>
+          <t>hair</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>along</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>party</t>
+          <t>draw</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>forget</t>
+          <t>keep</t>
         </is>
       </c>
     </row>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -12030,7 +12030,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>apply</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>occur</t>
+          <t>everything</t>
         </is>
       </c>
     </row>
@@ -12103,7 +12103,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>move</t>
+          <t>newspaper</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>build</t>
+          <t>blue</t>
         </is>
       </c>
     </row>
@@ -12447,7 +12447,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>opportunity</t>
         </is>
       </c>
     </row>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>lose</t>
+          <t>debate</t>
         </is>
       </c>
     </row>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>idea</t>
+          <t>moment</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -13095,14 +13095,14 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D457" t="n">
         <v>956.23</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>window</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>discuss</t>
         </is>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D474" t="n">
         <v>158.6</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>economy</t>
         </is>
       </c>
     </row>
@@ -15017,7 +15017,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D526" t="n">
         <v>779.6</v>
@@ -15125,7 +15125,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>feel</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -15487,7 +15487,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D543" t="n">
         <v>-0.5</v>
@@ -15687,7 +15687,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>store</t>
+          <t>according</t>
         </is>
       </c>
     </row>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>responsibility</t>
+          <t>night</t>
         </is>
       </c>
     </row>
@@ -15815,7 +15815,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D555" t="n">
         <v>303.2</v>
@@ -16074,7 +16074,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>play</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>television</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -16259,7 +16259,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>detail</t>
+          <t>example</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -16793,7 +16793,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D590" t="n">
         <v>341.37</v>
@@ -17025,7 +17025,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>necessary</t>
+          <t>risk</t>
         </is>
       </c>
     </row>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>one</t>
         </is>
       </c>
     </row>
@@ -17265,7 +17265,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>term</t>
         </is>
       </c>
     </row>
@@ -17564,7 +17564,7 @@
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>threat</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
@@ -17581,7 +17581,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>drive</t>
+          <t>it</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -17941,7 +17941,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>himself</t>
+          <t>arm</t>
         </is>
       </c>
       <c r="C632" t="n">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>send</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>seek</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>others</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -19313,7 +19313,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>sign</t>
         </is>
       </c>
     </row>
@@ -19472,7 +19472,7 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>south</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
@@ -19871,7 +19871,7 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>hear</t>
         </is>
       </c>
     </row>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>price</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -20388,7 +20388,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>technology</t>
+          <t>consumer</t>
         </is>
       </c>
       <c r="F720" t="inlineStr">
@@ -20806,7 +20806,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>check</t>
         </is>
       </c>
       <c r="F735" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>question</t>
         </is>
       </c>
       <c r="C740" t="n">
@@ -21019,7 +21019,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>rather</t>
         </is>
       </c>
       <c r="C743" t="n">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>since</t>
+          <t>pick</t>
         </is>
       </c>
       <c r="C758" t="n">
@@ -21951,7 +21951,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>Republican</t>
+          <t>station</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>sing</t>
         </is>
       </c>
       <c r="C788" t="n">
@@ -23131,7 +23131,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>ever</t>
+          <t>you</t>
         </is>
       </c>
       <c r="C819" t="n">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>degree</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
@@ -24273,7 +24273,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>feeling</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="C860" t="n">
@@ -24469,7 +24469,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>beyond</t>
+          <t>least</t>
         </is>
       </c>
       <c r="C867" t="n">
@@ -24553,7 +24553,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>land</t>
         </is>
       </c>
       <c r="C870" t="n">
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D887" t="n">
         <v>710.28</v>
@@ -25249,11 +25249,11 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>clearly</t>
+          <t>community</t>
         </is>
       </c>
       <c r="C895" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D895" t="n">
         <v>398.54</v>
@@ -25333,7 +25333,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>middle</t>
+          <t>through</t>
         </is>
       </c>
       <c r="C898" t="n">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>south</t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
@@ -25445,7 +25445,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>candidate</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="C902" t="n">
@@ -25529,7 +25529,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="C905" t="n">
@@ -25837,7 +25837,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>enough</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="C916" t="n">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>99999</v>
+        <v>1000</v>
       </c>
       <c r="D919" t="n">
         <v>852.72</v>
@@ -25973,7 +25973,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>father</t>
         </is>
       </c>
       <c r="C921" t="n">
@@ -26395,7 +26395,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>someone</t>
         </is>
       </c>
       <c r="C936" t="n">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>three</t>
         </is>
       </c>
     </row>
@@ -26803,7 +26803,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>sometimes</t>
+          <t>military</t>
         </is>
       </c>
     </row>
@@ -26815,7 +26815,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>accept</t>
+          <t>lot</t>
         </is>
       </c>
       <c r="C951" t="n">
@@ -27438,7 +27438,7 @@
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>hundred</t>
         </is>
       </c>
       <c r="F973" t="inlineStr">
@@ -28029,7 +28029,7 @@
       </c>
       <c r="F994" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>financial</t>
         </is>
       </c>
     </row>

--- a/inventory_management/utils/inventario.xlsx
+++ b/inventory_management/utils/inventario.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>feel</t>
+          <t>like</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>of</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>scene</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>seek</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>next</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>shoulder</t>
+          <t>only</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>relate</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>wife</t>
+          <t>my</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>simply</t>
+          <t>article</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>rise</t>
+          <t>single</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>fill</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>them</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>hair</t>
+          <t>realize</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>moment</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>suffer</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>door</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>anything</t>
+          <t>at</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>everyone</t>
+          <t>financial</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>avoid</t>
+          <t>general</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>produce</t>
+          <t>right</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>fine</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>move</t>
+          <t>nothing</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>population</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>hair</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>argue</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>tough</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>draw</t>
+          <t>player</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>keep</t>
+          <t>model</t>
         </is>
       </c>
     </row>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>guess</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>may</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -12030,7 +12030,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>receive</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>everything</t>
+          <t>local</t>
         </is>
       </c>
     </row>
@@ -12103,7 +12103,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>newspaper</t>
+          <t>box</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>less</t>
         </is>
       </c>
     </row>
@@ -12447,7 +12447,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>forward</t>
         </is>
       </c>
     </row>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>debate</t>
+          <t>strong</t>
         </is>
       </c>
     </row>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>moment</t>
+          <t>just</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -13102,7 +13102,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>window</t>
+          <t>three</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>run</t>
         </is>
       </c>
     </row>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>whatever</t>
         </is>
       </c>
     </row>
@@ -15125,7 +15125,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>feel</t>
+          <t>skin</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -15687,7 +15687,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>according</t>
+          <t>teacher</t>
         </is>
       </c>
     </row>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>environmental</t>
         </is>
       </c>
     </row>
@@ -16074,7 +16074,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -16259,7 +16259,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>example</t>
+          <t>church</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -17025,7 +17025,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>safe</t>
         </is>
       </c>
     </row>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>military</t>
         </is>
       </c>
     </row>
@@ -17265,7 +17265,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>term</t>
+          <t>article</t>
         </is>
       </c>
     </row>
@@ -17564,7 +17564,7 @@
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>threat</t>
+          <t>sister</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
@@ -17581,7 +17581,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>reveal</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -17941,7 +17941,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>arm</t>
+          <t>especially</t>
         </is>
       </c>
       <c r="C632" t="n">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>send</t>
+          <t>heavy</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>seek</t>
+          <t>model</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -19313,7 +19313,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>sign</t>
+          <t>environment</t>
         </is>
       </c>
     </row>
@@ -19472,7 +19472,7 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>south</t>
+          <t>medical</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
@@ -19871,7 +19871,7 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>hear</t>
+          <t>place</t>
         </is>
       </c>
     </row>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>them</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -20388,7 +20388,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>consumer</t>
+          <t>history</t>
         </is>
       </c>
       <c r="F720" t="inlineStr">
@@ -20806,7 +20806,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>where</t>
         </is>
       </c>
       <c r="F735" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>establish</t>
         </is>
       </c>
       <c r="C740" t="n">
@@ -21019,7 +21019,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>probably</t>
         </is>
       </c>
       <c r="C743" t="n">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>pick</t>
+          <t>land</t>
         </is>
       </c>
       <c r="C758" t="n">
@@ -21951,7 +21951,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>style</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>sing</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="C788" t="n">
@@ -23131,7 +23131,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="C819" t="n">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>low</t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
@@ -24273,7 +24273,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>week</t>
         </is>
       </c>
       <c r="C860" t="n">
@@ -24469,7 +24469,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>sort</t>
         </is>
       </c>
       <c r="C867" t="n">
@@ -24553,7 +24553,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>truth</t>
         </is>
       </c>
       <c r="C870" t="n">
@@ -25249,7 +25249,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="C895" t="n">
@@ -25333,7 +25333,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>enjoy</t>
         </is>
       </c>
       <c r="C898" t="n">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>south</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
@@ -25445,7 +25445,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="C902" t="n">
@@ -25529,7 +25529,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>effort</t>
         </is>
       </c>
       <c r="C905" t="n">
@@ -25837,7 +25837,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>poor</t>
+          <t>culture</t>
         </is>
       </c>
       <c r="C916" t="n">
@@ -25973,7 +25973,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>small</t>
         </is>
       </c>
       <c r="C921" t="n">
@@ -26395,7 +26395,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>someone</t>
+          <t>body</t>
         </is>
       </c>
       <c r="C936" t="n">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>community</t>
         </is>
       </c>
     </row>
@@ -26803,7 +26803,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>military</t>
+          <t>manager</t>
         </is>
       </c>
     </row>
@@ -26815,7 +26815,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>lot</t>
+          <t>group</t>
         </is>
       </c>
       <c r="C951" t="n">
@@ -27438,7 +27438,7 @@
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>hundred</t>
+          <t>help</t>
         </is>
       </c>
       <c r="F973" t="inlineStr">
@@ -28029,7 +28029,7 @@
       </c>
       <c r="F994" t="inlineStr">
         <is>
-          <t>financial</t>
+          <t>whether</t>
         </is>
       </c>
     </row>
